--- a/REPORTES.xlsx
+++ b/REPORTES.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liype\Documents\GranjaVolantin\Granja\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{010AA103-E942-4CDC-8B0D-C616E7118EFC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE835AB0-3217-47C4-88EE-A7F1F8ECDD9D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{6A163D50-54A5-4B89-AC11-0F1EA5E6CE4D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{6A163D50-54A5-4B89-AC11-0F1EA5E6CE4D}"/>
   </bookViews>
   <sheets>
     <sheet name="CERDO" sheetId="1" r:id="rId1"/>
     <sheet name="BORREGO" sheetId="3" r:id="rId2"/>
     <sheet name="HUEVO" sheetId="2" r:id="rId3"/>
+    <sheet name="INDICADORES FINANCIEROS" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="89">
   <si>
     <t xml:space="preserve">EXISTENCIA </t>
   </si>
@@ -105,6 +106,195 @@
   </si>
   <si>
     <t>RECOLECCIÒN</t>
+  </si>
+  <si>
+    <t>INDICADORES FINANCIEROS BASICOS</t>
+  </si>
+  <si>
+    <t>Nombre de la sociedad.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regimen fiscal </t>
+  </si>
+  <si>
+    <t>Actividades Agricolas, ganaderas, silvicolas y pesqueras.</t>
+  </si>
+  <si>
+    <t>Fecha de informe</t>
+  </si>
+  <si>
+    <t>Indicadores Bàsicos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enero </t>
+  </si>
+  <si>
+    <t>Febrero</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Marzo </t>
+  </si>
+  <si>
+    <t>Abril</t>
+  </si>
+  <si>
+    <t>Mayo</t>
+  </si>
+  <si>
+    <t>Junio</t>
+  </si>
+  <si>
+    <t>Julio</t>
+  </si>
+  <si>
+    <t>Agosto</t>
+  </si>
+  <si>
+    <t>Septiembre</t>
+  </si>
+  <si>
+    <t>Octubre</t>
+  </si>
+  <si>
+    <t>Noviembre</t>
+  </si>
+  <si>
+    <t>Diciembre</t>
+  </si>
+  <si>
+    <t>Unidad de Medida</t>
+  </si>
+  <si>
+    <t>Apalancamiento</t>
+  </si>
+  <si>
+    <t>Liquidez</t>
+  </si>
+  <si>
+    <t>Apalancamiento financiero</t>
+  </si>
+  <si>
+    <t>EBITDA</t>
+  </si>
+  <si>
+    <t>Indice de Morosidad</t>
+  </si>
+  <si>
+    <t>Prueba de Acido</t>
+  </si>
+  <si>
+    <t>Margen Operativo</t>
+  </si>
+  <si>
+    <t>Servicio de cobertura de deuda</t>
+  </si>
+  <si>
+    <t>Gastos Generales, venta, Admon y Fabricacion</t>
+  </si>
+  <si>
+    <t>Quiebra tècnica</t>
+  </si>
+  <si>
+    <t>Estadistica (miles de pesos, cifras acumuladas al cierre de reporte)</t>
+  </si>
+  <si>
+    <t>Activos</t>
+  </si>
+  <si>
+    <t>Pasivos</t>
+  </si>
+  <si>
+    <t>Total de cuentas por cobrar (clientes)</t>
+  </si>
+  <si>
+    <t>Carrtera Vencida (clientes)</t>
+  </si>
+  <si>
+    <t>Total Cuentas por Pagar</t>
+  </si>
+  <si>
+    <t>Capital Social</t>
+  </si>
+  <si>
+    <t>Capital Contable</t>
+  </si>
+  <si>
+    <t>Ventas Totales</t>
+  </si>
+  <si>
+    <t>Costo</t>
+  </si>
+  <si>
+    <t>Gastos Generales</t>
+  </si>
+  <si>
+    <t>Gastos de Administraciòn</t>
+  </si>
+  <si>
+    <t>Gastos de Venta</t>
+  </si>
+  <si>
+    <t>Gastos de Fabricaciòn</t>
+  </si>
+  <si>
+    <t>Margen Financiero</t>
+  </si>
+  <si>
+    <t>Utilidad/Perdida Neta</t>
+  </si>
+  <si>
+    <t>No. Cerdos en Corral</t>
+  </si>
+  <si>
+    <t>Valor total de cerdo</t>
+  </si>
+  <si>
+    <t>No. De Gallinas Postura</t>
+  </si>
+  <si>
+    <t>Kilos vendidos (Cerdo)</t>
+  </si>
+  <si>
+    <t>Kilos Vendidos (Huevo)</t>
+  </si>
+  <si>
+    <t>Kilos Recolectados(Huevo)</t>
+  </si>
+  <si>
+    <t>No. Total de empleados</t>
+  </si>
+  <si>
+    <t>miles $</t>
+  </si>
+  <si>
+    <t>No.</t>
+  </si>
+  <si>
+    <t>&lt;=25%</t>
+  </si>
+  <si>
+    <t>&gt;=10%</t>
+  </si>
+  <si>
+    <t>&lt;=10%</t>
+  </si>
+  <si>
+    <t>&gt;=70%</t>
+  </si>
+  <si>
+    <t>&gt;=5%</t>
+  </si>
+  <si>
+    <t>&gt;=8%</t>
+  </si>
+  <si>
+    <t>&lt;=70%</t>
+  </si>
+  <si>
+    <t>Apalancamiento Operativo</t>
+  </si>
+  <si>
+    <t>(No)(Si)</t>
   </si>
 </sst>
 </file>
@@ -142,7 +332,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -152,6 +342,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -263,9 +465,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -284,24 +505,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -639,134 +855,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="4"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="15"/>
     </row>
     <row r="2" spans="2:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="5"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="7"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="18"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B3" s="8"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="10" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="5"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B4" s="8"/>
-      <c r="C4" s="17" t="s">
+      <c r="B4" s="2"/>
+      <c r="C4" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="17" t="s">
+      <c r="D4" s="11"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="12"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="5"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B5" s="8"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
       <c r="I5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="12"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="5"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B6" s="13"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="15"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="8"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="16" t="s">
+      <c r="H7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I7" s="16" t="s">
+      <c r="I7" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="J7" s="16" t="s">
+      <c r="J7" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="K7" s="16" t="s">
+      <c r="K7" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="16" t="s">
+      <c r="L7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="M7" s="16" t="s">
+      <c r="M7" s="9" t="s">
         <v>10</v>
       </c>
     </row>
@@ -902,7 +1118,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9323305-B94F-4A43-8D73-4E0572A559E0}">
   <dimension ref="B1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -915,125 +1131,125 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="4"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="15"/>
     </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B2" s="5"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="7"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="18"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B3" s="8"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="10" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="5"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B4" s="8"/>
-      <c r="C4" s="17" t="s">
+      <c r="B4" s="2"/>
+      <c r="C4" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="18" t="s">
+      <c r="D4" s="11"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="12"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="5"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B5" s="8"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
       <c r="I5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="12"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="5"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B6" s="13"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="15"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="8"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="16" t="s">
+      <c r="H7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I7" s="16" t="s">
+      <c r="I7" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="J7" s="16" t="s">
+      <c r="J7" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="16" t="s">
+      <c r="K7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="L7" s="16" t="s">
+      <c r="L7" s="9" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1160,7 +1376,7 @@
   <dimension ref="B1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:K13"/>
+      <selection activeCell="B1" sqref="B1:K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1172,116 +1388,116 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="4"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="15"/>
     </row>
     <row r="2" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B2" s="5"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="7"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="18"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B3" s="8"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="10" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="5"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B4" s="8"/>
-      <c r="C4" s="17" t="s">
+      <c r="B4" s="2"/>
+      <c r="C4" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="18" t="s">
+      <c r="D4" s="11"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="12"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="5"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B5" s="8"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
       <c r="H5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="12"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="5"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B6" s="13"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="15"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="8"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="16" t="s">
+      <c r="H7" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="16" t="s">
+      <c r="I7" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="16" t="s">
+      <c r="J7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K7" s="16" t="s">
+      <c r="K7" s="9" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1394,4 +1610,793 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5420F55F-2147-4DEE-B896-E21470925382}">
+  <dimension ref="B1:O41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="40.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.3984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B1" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+    </row>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B3" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B4" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B5" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B7" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="J7" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="K7" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L7" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="M7" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="N7" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="O7" s="24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B8" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B9" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B10" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B11" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B12" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B13" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B14" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B15" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B16" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B17" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B18" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B19" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="23"/>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B20" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B21" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B22" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B23" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B24" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B25" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B26" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B27" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B28" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B29" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B30" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B31" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B32" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B33" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B34" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B35" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B36" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B37" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+    </row>
+    <row r="38" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B38" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B39" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B40" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B41" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B1:I2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="B19:C19"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/REPORTES.xlsx
+++ b/REPORTES.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liype\Documents\GranjaVolantin\Granja\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE835AB0-3217-47C4-88EE-A7F1F8ECDD9D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC4B5008-C2F6-434F-9455-71DA6F2A6F1E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{6A163D50-54A5-4B89-AC11-0F1EA5E6CE4D}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="92">
   <si>
     <t xml:space="preserve">EXISTENCIA </t>
   </si>
@@ -295,6 +295,15 @@
   </si>
   <si>
     <t>(No)(Si)</t>
+  </si>
+  <si>
+    <t>por granjas/total</t>
+  </si>
+  <si>
+    <t>acreedores,prov (casi</t>
+  </si>
+  <si>
+    <t>si</t>
   </si>
 </sst>
 </file>
@@ -481,6 +490,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -508,16 +522,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -855,73 +864,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="15"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="18"/>
     </row>
     <row r="2" spans="2:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="16"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="18"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="21"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="2"/>
       <c r="C3" s="3"/>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
       <c r="K3" s="4"/>
       <c r="L3" s="3"/>
       <c r="M3" s="5"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="2"/>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="11"/>
+      <c r="D4" s="14"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
       <c r="M4" s="5"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B5" s="2"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -929,9 +938,9 @@
       <c r="I5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
       <c r="M5" s="5"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.3">
@@ -1131,54 +1140,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="15"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="18"/>
     </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B2" s="16"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="18"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="21"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B3" s="2"/>
       <c r="C3" s="3"/>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
       <c r="J3" s="4"/>
       <c r="K3" s="3"/>
       <c r="L3" s="5"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B4" s="2"/>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="11"/>
+      <c r="D4" s="14"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -1186,14 +1195,14 @@
       <c r="I4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
       <c r="L4" s="5"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B5" s="2"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -1201,8 +1210,8 @@
       <c r="I5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
       <c r="L5" s="5"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
@@ -1376,7 +1385,7 @@
   <dimension ref="B1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:K2"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1388,73 +1397,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="15"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="18"/>
     </row>
     <row r="2" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B2" s="16"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="18"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="21"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3" s="2"/>
       <c r="C3" s="3"/>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
       <c r="I3" s="4"/>
       <c r="J3" s="3"/>
       <c r="K3" s="5"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B4" s="2"/>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="11"/>
+      <c r="D4" s="14"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
       <c r="K4" s="5"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B5" s="2"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
       <c r="K5" s="5"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.3">
@@ -1614,10 +1623,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5420F55F-2147-4DEE-B896-E21470925382}">
-  <dimension ref="B1:O41"/>
+  <dimension ref="A1:O42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="87" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1627,104 +1636,104 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
     </row>
     <row r="2" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
       <c r="F5" s="1"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E7" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="24" t="s">
+      <c r="F7" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="24" t="s">
+      <c r="G7" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="24" t="s">
+      <c r="H7" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="I7" s="24" t="s">
+      <c r="I7" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="J7" s="24" t="s">
+      <c r="J7" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="K7" s="24" t="s">
+      <c r="K7" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="L7" s="24" t="s">
+      <c r="L7" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="M7" s="24" t="s">
+      <c r="M7" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="N7" s="24" t="s">
+      <c r="N7" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="O7" s="24" t="s">
+      <c r="O7" s="13" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="12" t="s">
         <v>45</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -1744,7 +1753,7 @@
       <c r="O8" s="1"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="12" t="s">
         <v>46</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -1764,7 +1773,7 @@
       <c r="O9" s="1"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="12" t="s">
         <v>47</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -1784,7 +1793,7 @@
       <c r="O10" s="1"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="12" t="s">
         <v>48</v>
       </c>
       <c r="C11" s="1"/>
@@ -1802,7 +1811,7 @@
       <c r="O11" s="1"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="12" t="s">
         <v>49</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -1822,7 +1831,7 @@
       <c r="O12" s="1"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="12" t="s">
         <v>50</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -1842,7 +1851,7 @@
       <c r="O13" s="1"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="12" t="s">
         <v>51</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -1862,7 +1871,7 @@
       <c r="O14" s="1"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="12" t="s">
         <v>52</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -1882,7 +1891,7 @@
       <c r="O15" s="1"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="12" t="s">
         <v>53</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -1901,8 +1910,8 @@
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B17" s="21" t="s">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B17" s="12" t="s">
         <v>87</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -1921,8 +1930,8 @@
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B18" s="21" t="s">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B18" s="12" t="s">
         <v>54</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -1941,14 +1950,14 @@
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B19" s="22" t="s">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B19" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="23"/>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B20" s="21" t="s">
+      <c r="C19" s="24"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B20" s="12" t="s">
         <v>56</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -1967,8 +1976,11 @@
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B21" s="21" t="s">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>90</v>
+      </c>
+      <c r="B21" s="12" t="s">
         <v>57</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -1987,8 +1999,11 @@
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B22" s="21" t="s">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>91</v>
+      </c>
+      <c r="B22" s="12" t="s">
         <v>58</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -2007,8 +2022,11 @@
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B23" s="21" t="s">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>91</v>
+      </c>
+      <c r="B23" s="12" t="s">
         <v>59</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -2027,8 +2045,11 @@
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B24" s="21" t="s">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>91</v>
+      </c>
+      <c r="B24" s="12" t="s">
         <v>60</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -2047,8 +2068,8 @@
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B25" s="21" t="s">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B25" s="12" t="s">
         <v>61</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -2067,8 +2088,8 @@
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B26" s="21" t="s">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B26" s="12" t="s">
         <v>62</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -2087,8 +2108,11 @@
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B27" s="21" t="s">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>91</v>
+      </c>
+      <c r="B27" s="12" t="s">
         <v>63</v>
       </c>
       <c r="C27" s="1" t="s">
@@ -2107,8 +2131,11 @@
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B28" s="21" t="s">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>91</v>
+      </c>
+      <c r="B28" s="12" t="s">
         <v>64</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -2127,8 +2154,11 @@
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B29" s="21" t="s">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>91</v>
+      </c>
+      <c r="B29" s="12" t="s">
         <v>65</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -2147,8 +2177,11 @@
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B30" s="21" t="s">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>91</v>
+      </c>
+      <c r="B30" s="12" t="s">
         <v>67</v>
       </c>
       <c r="C30" s="1" t="s">
@@ -2167,8 +2200,11 @@
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B31" s="21" t="s">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>91</v>
+      </c>
+      <c r="B31" s="12" t="s">
         <v>66</v>
       </c>
       <c r="C31" s="1" t="s">
@@ -2187,8 +2223,11 @@
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B32" s="21" t="s">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>91</v>
+      </c>
+      <c r="B32" s="12" t="s">
         <v>68</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -2207,8 +2246,8 @@
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B33" s="21" t="s">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B33" s="12" t="s">
         <v>69</v>
       </c>
       <c r="C33" s="1" t="s">
@@ -2227,8 +2266,8 @@
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B34" s="21" t="s">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B34" s="12" t="s">
         <v>70</v>
       </c>
       <c r="C34" s="1" t="s">
@@ -2247,8 +2286,11 @@
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
     </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B35" s="21" t="s">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35" s="12" t="s">
         <v>71</v>
       </c>
       <c r="C35" s="1" t="s">
@@ -2267,8 +2309,11 @@
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
     </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B36" s="21" t="s">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36" s="12" t="s">
         <v>72</v>
       </c>
       <c r="C36" s="1" t="s">
@@ -2287,8 +2332,11 @@
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B37" s="21" t="s">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37" s="12" t="s">
         <v>73</v>
       </c>
       <c r="C37" s="1" t="s">
@@ -2307,8 +2355,11 @@
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B38" s="21" t="s">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38" s="12" t="s">
         <v>74</v>
       </c>
       <c r="C38" s="1" t="s">
@@ -2327,8 +2378,11 @@
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B39" s="21" t="s">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39" s="12" t="s">
         <v>75</v>
       </c>
       <c r="C39" s="1" t="s">
@@ -2347,8 +2401,11 @@
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
     </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B40" s="21" t="s">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40" s="12" t="s">
         <v>76</v>
       </c>
       <c r="C40" s="1" t="s">
@@ -2367,8 +2424,11 @@
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
     </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B41" s="21" t="s">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41" s="12" t="s">
         <v>77</v>
       </c>
       <c r="C41" s="1" t="s">
@@ -2386,6 +2446,11 @@
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>89</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/REPORTES.xlsx
+++ b/REPORTES.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liype\Documents\GranjaVolantin\Granja\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC4B5008-C2F6-434F-9455-71DA6F2A6F1E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C176E70-ACFE-4E70-8DC5-F73512C9B86B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{6A163D50-54A5-4B89-AC11-0F1EA5E6CE4D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{6A163D50-54A5-4B89-AC11-0F1EA5E6CE4D}"/>
   </bookViews>
   <sheets>
     <sheet name="CERDO" sheetId="1" r:id="rId1"/>
     <sheet name="BORREGO" sheetId="3" r:id="rId2"/>
     <sheet name="HUEVO" sheetId="2" r:id="rId3"/>
     <sheet name="INDICADORES FINANCIEROS" sheetId="4" r:id="rId4"/>
+    <sheet name="INDICADORES" sheetId="5" r:id="rId5"/>
+    <sheet name="Hoja2" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="96">
   <si>
     <t xml:space="preserve">EXISTENCIA </t>
   </si>
@@ -304,6 +306,18 @@
   </si>
   <si>
     <t>si</t>
+  </si>
+  <si>
+    <t>INDICADORES GRANJAS</t>
+  </si>
+  <si>
+    <t>HUEVO</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>CERDO</t>
   </si>
 </sst>
 </file>
@@ -845,7 +859,7 @@
   <dimension ref="B1:M14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:M14"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1128,7 +1142,7 @@
   <dimension ref="B1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C22" sqref="C21:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1625,8 +1639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5420F55F-2147-4DEE-B896-E21470925382}">
   <dimension ref="A1:O42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="87" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+    <sheetView zoomScale="87" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2464,4 +2478,167 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3073DAED-8F8B-4ED8-829B-877BF30A2E6E}">
+  <dimension ref="A1:N22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.09765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="L7" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="M7" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="N7" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:D5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FC017FE-7D6D-4774-A31C-1CB8337A0B1B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/REPORTES.xlsx
+++ b/REPORTES.xlsx
@@ -8,17 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liype\Documents\GranjaVolantin\Granja\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C176E70-ACFE-4E70-8DC5-F73512C9B86B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D45E227-42B9-4E94-B7C0-7CE808E18815}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{6A163D50-54A5-4B89-AC11-0F1EA5E6CE4D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{6A163D50-54A5-4B89-AC11-0F1EA5E6CE4D}"/>
   </bookViews>
   <sheets>
     <sheet name="CERDO" sheetId="1" r:id="rId1"/>
     <sheet name="BORREGO" sheetId="3" r:id="rId2"/>
     <sheet name="HUEVO" sheetId="2" r:id="rId3"/>
-    <sheet name="INDICADORES FINANCIEROS" sheetId="4" r:id="rId4"/>
-    <sheet name="INDICADORES" sheetId="5" r:id="rId5"/>
-    <sheet name="Hoja2" sheetId="6" r:id="rId6"/>
+    <sheet name="ANUAL HUEVO" sheetId="5" r:id="rId4"/>
+    <sheet name="HUEVO MENSUAL" sheetId="6" r:id="rId5"/>
+    <sheet name="INDICADORES FINANCIEROS" sheetId="4" r:id="rId6"/>
+    <sheet name="ANUAL CERDO" sheetId="7" r:id="rId7"/>
+    <sheet name="CERDO MENSUAL" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="154">
   <si>
     <t xml:space="preserve">EXISTENCIA </t>
   </si>
@@ -318,6 +320,180 @@
   </si>
   <si>
     <t>CERDO</t>
+  </si>
+  <si>
+    <t>AREA</t>
+  </si>
+  <si>
+    <t>Porcentaje de postura</t>
+  </si>
+  <si>
+    <t>Kilos por caja</t>
+  </si>
+  <si>
+    <t>Kilos recolectados vendidos</t>
+  </si>
+  <si>
+    <t>KG</t>
+  </si>
+  <si>
+    <t>Dìas de recolecciòn vendidos</t>
+  </si>
+  <si>
+    <t>Dìas</t>
+  </si>
+  <si>
+    <t>Costo medicamento por gallina</t>
+  </si>
+  <si>
+    <t>$</t>
+  </si>
+  <si>
+    <t>Costo alimento por gallina</t>
+  </si>
+  <si>
+    <t>Fuerza laboral</t>
+  </si>
+  <si>
+    <t>Gallinas por persona</t>
+  </si>
+  <si>
+    <t>Costo embalaje por caja vendida</t>
+  </si>
+  <si>
+    <t>Duraciòn pelecha</t>
+  </si>
+  <si>
+    <t>Dìas/semana</t>
+  </si>
+  <si>
+    <t>Rendimiento de pelecha</t>
+  </si>
+  <si>
+    <t>Costo gallina en crianza</t>
+  </si>
+  <si>
+    <t>Costo gallina en postura</t>
+  </si>
+  <si>
+    <t>Costo por porcentaje de postura</t>
+  </si>
+  <si>
+    <t>Conversion Alimenticia</t>
+  </si>
+  <si>
+    <t>Costo medicamento preventivo por gallina</t>
+  </si>
+  <si>
+    <t>Costo medicamento correctivo por gallina</t>
+  </si>
+  <si>
+    <t>Mortalidad en pelecha</t>
+  </si>
+  <si>
+    <t>Tasa mortalidad</t>
+  </si>
+  <si>
+    <t>Perdida por muerte en pelecha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">% </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perdida por muerte   </t>
+  </si>
+  <si>
+    <t>MES</t>
+  </si>
+  <si>
+    <t>Semana 1</t>
+  </si>
+  <si>
+    <t>Semana 2</t>
+  </si>
+  <si>
+    <t>Semana 3</t>
+  </si>
+  <si>
+    <t>Semana 4</t>
+  </si>
+  <si>
+    <t>AÑO</t>
+  </si>
+  <si>
+    <t>Peso promedio de venta por corral</t>
+  </si>
+  <si>
+    <t>Kg</t>
+  </si>
+  <si>
+    <t>Duraciòn promedio de cerdo de destete a vta.</t>
+  </si>
+  <si>
+    <t>Costo diario de cerdo por corral</t>
+  </si>
+  <si>
+    <t>Tasa de mortalidad en corral (Nacimiento, destete, desarrollo)</t>
+  </si>
+  <si>
+    <t>Perdida por muerte</t>
+  </si>
+  <si>
+    <t>Capacidad de uso del corral</t>
+  </si>
+  <si>
+    <t>Costo consumo de alimento por corral</t>
+  </si>
+  <si>
+    <t>Gasto por corral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuerza laboral por granja </t>
+  </si>
+  <si>
+    <t># de cerdo por persona</t>
+  </si>
+  <si>
+    <t>Kilos consumidos por cabeza</t>
+  </si>
+  <si>
+    <t>kg</t>
+  </si>
+  <si>
+    <t>Conversion de alimento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Costo conversion de alimento </t>
+  </si>
+  <si>
+    <t>Costo alimento preventivo</t>
+  </si>
+  <si>
+    <t>Costo de alimento correctivo</t>
+  </si>
+  <si>
+    <t>Costo de alimento normal</t>
+  </si>
+  <si>
+    <t>Costo lechòn: Costo hembra para destetar</t>
+  </si>
+  <si>
+    <t>Partos por vientre</t>
+  </si>
+  <si>
+    <t># nacimientos por madre</t>
+  </si>
+  <si>
+    <t>Gestaciòn: Costo mantenimiento marranas</t>
+  </si>
+  <si>
+    <t>Conversion alimento en gestaciòn</t>
+  </si>
+  <si>
+    <t>Costo conversiòn alimento gestaciòn.</t>
+  </si>
+  <si>
+    <t>Cerdo</t>
   </si>
 </sst>
 </file>
@@ -381,7 +557,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -484,11 +660,76 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -542,6 +783,29 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1636,11 +1900,908 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3073DAED-8F8B-4ED8-829B-877BF30A2E6E}">
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection sqref="A1:N28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="37.09765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.3984375" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.09765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="25"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="K8" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="L8" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="M8" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="N8" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="B21" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="B22" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="B23" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="B24" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="B25" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A26" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="B26" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A27" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="B27" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A28" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="B28" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:D5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FC017FE-7D6D-4774-A31C-1CB8337A0B1B}">
+  <dimension ref="A1:H29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="37.09765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.3984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="F8" s="35" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="B16" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="B17" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="B18" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="B21" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="B22" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="B23" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="B24" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="B25" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="B26" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="B27" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="B28" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:D5"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5420F55F-2147-4DEE-B896-E21470925382}">
   <dimension ref="A1:O42"/>
   <sheetViews>
     <sheetView zoomScale="87" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:O8"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2480,19 +3641,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3073DAED-8F8B-4ED8-829B-877BF30A2E6E}">
-  <dimension ref="A1:N22"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E0E38E3-885D-4537-A0F5-6B5AAD1FC892}">
+  <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.59765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.09765625" customWidth="1"/>
+    <col min="1" max="1" width="53.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -2548,77 +3708,465 @@
       <c r="D5" s="14"/>
       <c r="E5" s="1"/>
     </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E6" s="1"/>
+    </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="25"/>
+      <c r="B7" s="27"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B8" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C8" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D8" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E8" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F8" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G8" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="H8" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="I7" s="13" t="s">
+      <c r="I8" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="J7" s="13" t="s">
+      <c r="J8" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="K7" s="13" t="s">
+      <c r="K8" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="L7" s="13" t="s">
+      <c r="L8" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="M7" s="13" t="s">
+      <c r="M8" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="N7" s="13" t="s">
+      <c r="N8" s="13" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-    </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
+      <c r="A9" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="B12" s="26" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>95</v>
-      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="B21" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="B22" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="B23" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="B24" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="B25" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A26" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="B26" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A27" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="B27" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A28" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="B28" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2631,14 +4179,353 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FC017FE-7D6D-4774-A31C-1CB8337A0B1B}">
-  <dimension ref="A1"/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{830191A4-398A-4006-91C3-97C2190DEC11}">
+  <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="53.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.09765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="F8" s="35" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="B21" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="B22" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="B23" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="B24" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="B25" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="B26" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="B27" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="B28" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:D5"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/REPORTES.xlsx
+++ b/REPORTES.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liype\Documents\GranjaVolantin\Granja\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D45E227-42B9-4E94-B7C0-7CE808E18815}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{933E52CF-DB7C-44A2-B773-C7E5FE024067}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{6A163D50-54A5-4B89-AC11-0F1EA5E6CE4D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{6A163D50-54A5-4B89-AC11-0F1EA5E6CE4D}"/>
   </bookViews>
   <sheets>
     <sheet name="CERDO" sheetId="1" r:id="rId1"/>
     <sheet name="BORREGO" sheetId="3" r:id="rId2"/>
     <sheet name="HUEVO" sheetId="2" r:id="rId3"/>
-    <sheet name="ANUAL HUEVO" sheetId="5" r:id="rId4"/>
-    <sheet name="HUEVO MENSUAL" sheetId="6" r:id="rId5"/>
-    <sheet name="INDICADORES FINANCIEROS" sheetId="4" r:id="rId6"/>
+    <sheet name="SEMANAL" sheetId="9" r:id="rId4"/>
+    <sheet name="ANUAL HUEVO" sheetId="5" r:id="rId5"/>
+    <sheet name="HUEVO MENSUAL" sheetId="6" r:id="rId6"/>
     <sheet name="ANUAL CERDO" sheetId="7" r:id="rId7"/>
     <sheet name="CERDO MENSUAL" sheetId="8" r:id="rId8"/>
+    <sheet name="INDICADORES FINANCIEROS" sheetId="4" r:id="rId9"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="156">
   <si>
     <t xml:space="preserve">EXISTENCIA </t>
   </si>
@@ -494,6 +495,12 @@
   </si>
   <si>
     <t>Cerdo</t>
+  </si>
+  <si>
+    <t>Realizado:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Semana </t>
   </si>
 </sst>
 </file>
@@ -557,7 +564,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -725,11 +732,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -783,6 +816,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -806,6 +840,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1662,8 +1717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B584D90C-2AC1-4DD7-AD3D-3E492BB17009}">
   <dimension ref="B1:K14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1900,17 +1955,513 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CE4FCD1-0504-4939-85E4-0F87DE4DF426}">
+  <dimension ref="A1:H51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="53.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.296875" customWidth="1"/>
+    <col min="4" max="4" width="14.5" customWidth="1"/>
+    <col min="5" max="5" width="12.296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.19921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="38"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="B6" s="27"/>
+      <c r="D6" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="25"/>
+      <c r="B7" s="39"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" s="43"/>
+      <c r="C8" s="44"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="41" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="B15" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="B17" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="B18" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="B19" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="B20" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="B21" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="B22" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="B23" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="C23" s="1"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="B24" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="C24" s="1"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="B25" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="C25" s="1"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="B26" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="C26" s="1"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="B27" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="C27" s="1"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="B28" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="C28" s="1"/>
+    </row>
+    <row r="29" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="B29" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="C29" s="1"/>
+    </row>
+    <row r="30" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="B30" s="43"/>
+      <c r="C30" s="44"/>
+    </row>
+    <row r="31" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" s="45" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="B32" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="C32" s="32"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="B33" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="C33" s="1"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="B34" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="C34" s="1"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="B35" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="C35" s="1"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="B36" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="C36" s="1"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="B37" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="C37" s="1"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="B38" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="C38" s="1"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="B39" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="C39" s="1"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="B40" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="C40" s="1"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="B41" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="C41" s="1"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="B42" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="C42" s="1"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="B43" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="C43" s="1"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="B44" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="C44" s="1"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="B45" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="C45" s="1"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="B46" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="C46" s="1"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="B47" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="C47" s="1"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="B48" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="C48" s="1"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="B49" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="C49" s="1"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="B50" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="C50" s="1"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="B51" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="C51" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A30:C30"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3073DAED-8F8B-4ED8-829B-877BF30A2E6E}">
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection sqref="A1:N28"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="37.09765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.3984375" style="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.3984375" style="28" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.09765625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1968,10 +2519,10 @@
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="27" t="s">
         <v>93</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -1980,7 +2531,7 @@
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="25"/>
+      <c r="A7" s="26"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
@@ -2027,10 +2578,10 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="27" t="s">
         <v>94</v>
       </c>
       <c r="C9" s="1"/>
@@ -2047,10 +2598,10 @@
       <c r="N9" s="1"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="27" t="s">
         <v>100</v>
       </c>
       <c r="C10" s="1"/>
@@ -2067,10 +2618,10 @@
       <c r="N10" s="1"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="27" t="s">
         <v>94</v>
       </c>
       <c r="C11" s="1"/>
@@ -2087,10 +2638,10 @@
       <c r="N11" s="1"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="27" t="s">
         <v>102</v>
       </c>
       <c r="C12" s="1"/>
@@ -2107,10 +2658,10 @@
       <c r="N12" s="1"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="27" t="s">
         <v>104</v>
       </c>
       <c r="C13" s="1"/>
@@ -2127,10 +2678,10 @@
       <c r="N13" s="1"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="27" t="s">
         <v>104</v>
       </c>
       <c r="C14" s="1"/>
@@ -2147,10 +2698,10 @@
       <c r="N14" s="1"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="27" t="s">
         <v>107</v>
       </c>
       <c r="C15" s="1"/>
@@ -2167,10 +2718,10 @@
       <c r="N15" s="1"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="27" t="s">
         <v>104</v>
       </c>
       <c r="C16" s="1"/>
@@ -2187,10 +2738,10 @@
       <c r="N16" s="1"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="27" t="s">
         <v>110</v>
       </c>
       <c r="C17" s="1"/>
@@ -2207,10 +2758,10 @@
       <c r="N17" s="1"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="27" t="s">
         <v>94</v>
       </c>
       <c r="C18" s="1"/>
@@ -2227,10 +2778,10 @@
       <c r="N18" s="1"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="25" t="s">
+      <c r="A19" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="27" t="s">
         <v>104</v>
       </c>
       <c r="C19" s="1"/>
@@ -2247,10 +2798,10 @@
       <c r="N19" s="1"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20" s="25" t="s">
+      <c r="A20" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="27" t="s">
         <v>104</v>
       </c>
       <c r="C20" s="1"/>
@@ -2267,10 +2818,10 @@
       <c r="N20" s="1"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A21" s="25" t="s">
+      <c r="A21" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="27" t="s">
         <v>104</v>
       </c>
       <c r="C21" s="1"/>
@@ -2290,7 +2841,7 @@
       <c r="A22" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="B22" s="26" t="s">
+      <c r="B22" s="27" t="s">
         <v>100</v>
       </c>
       <c r="C22" s="1"/>
@@ -2307,10 +2858,10 @@
       <c r="N22" s="1"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23" s="25" t="s">
+      <c r="A23" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="B23" s="26" t="s">
+      <c r="B23" s="27" t="s">
         <v>104</v>
       </c>
       <c r="C23" s="1"/>
@@ -2327,10 +2878,10 @@
       <c r="N23" s="1"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A24" s="25" t="s">
+      <c r="A24" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="B24" s="26" t="s">
+      <c r="B24" s="27" t="s">
         <v>104</v>
       </c>
       <c r="C24" s="1"/>
@@ -2347,10 +2898,10 @@
       <c r="N24" s="1"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A25" s="25" t="s">
+      <c r="A25" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="B25" s="26" t="s">
+      <c r="B25" s="27" t="s">
         <v>94</v>
       </c>
       <c r="C25" s="1"/>
@@ -2367,10 +2918,10 @@
       <c r="N25" s="1"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A26" s="25" t="s">
+      <c r="A26" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="B26" s="26" t="s">
+      <c r="B26" s="27" t="s">
         <v>104</v>
       </c>
       <c r="C26" s="1"/>
@@ -2387,10 +2938,10 @@
       <c r="N26" s="1"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A27" s="25" t="s">
+      <c r="A27" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="B27" s="26" t="s">
+      <c r="B27" s="27" t="s">
         <v>121</v>
       </c>
       <c r="C27" s="1"/>
@@ -2407,10 +2958,10 @@
       <c r="N27" s="1"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A28" s="25" t="s">
+      <c r="A28" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="B28" s="26" t="s">
+      <c r="B28" s="27" t="s">
         <v>104</v>
       </c>
       <c r="C28" s="1"/>
@@ -2438,12 +2989,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FC017FE-7D6D-4774-A31C-1CB8337A0B1B}">
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2506,10 +3057,10 @@
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="27" t="s">
         <v>93</v>
       </c>
       <c r="D6" s="11" t="s">
@@ -2519,42 +3070,42 @@
     </row>
     <row r="7" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="8" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="34" t="s">
+      <c r="C8" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="D8" s="35" t="s">
+      <c r="D8" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="E8" s="35" t="s">
+      <c r="E8" s="36" t="s">
         <v>126</v>
       </c>
-      <c r="F8" s="35" t="s">
+      <c r="F8" s="36" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="29" t="s">
         <v>100</v>
       </c>
       <c r="C10" s="1"/>
@@ -2563,10 +3114,10 @@
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="29" t="s">
         <v>94</v>
       </c>
       <c r="C11" s="1"/>
@@ -2575,10 +3126,10 @@
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="29" t="s">
         <v>102</v>
       </c>
       <c r="C12" s="1"/>
@@ -2587,10 +3138,10 @@
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="29" t="s">
         <v>104</v>
       </c>
       <c r="C13" s="1"/>
@@ -2599,10 +3150,10 @@
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="29" t="s">
         <v>104</v>
       </c>
       <c r="C14" s="1"/>
@@ -2611,10 +3162,10 @@
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="29" t="s">
         <v>107</v>
       </c>
       <c r="C15" s="1"/>
@@ -2623,10 +3174,10 @@
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="29" t="s">
         <v>104</v>
       </c>
       <c r="C16" s="1"/>
@@ -2635,10 +3186,10 @@
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="29" t="s">
         <v>110</v>
       </c>
       <c r="C17" s="1"/>
@@ -2647,10 +3198,10 @@
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="29" t="s">
         <v>94</v>
       </c>
       <c r="C18" s="1"/>
@@ -2659,10 +3210,10 @@
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="25" t="s">
+      <c r="A19" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="29" t="s">
         <v>104</v>
       </c>
       <c r="C19" s="1"/>
@@ -2671,10 +3222,10 @@
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="25" t="s">
+      <c r="A20" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="B20" s="28" t="s">
+      <c r="B20" s="29" t="s">
         <v>104</v>
       </c>
       <c r="C20" s="1"/>
@@ -2683,10 +3234,10 @@
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="25" t="s">
+      <c r="A21" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="B21" s="28" t="s">
+      <c r="B21" s="29" t="s">
         <v>104</v>
       </c>
       <c r="C21" s="1"/>
@@ -2698,7 +3249,7 @@
       <c r="A22" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="B22" s="28" t="s">
+      <c r="B22" s="29" t="s">
         <v>100</v>
       </c>
       <c r="C22" s="1"/>
@@ -2707,10 +3258,10 @@
       <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="25" t="s">
+      <c r="A23" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="B23" s="28" t="s">
+      <c r="B23" s="29" t="s">
         <v>104</v>
       </c>
       <c r="C23" s="1"/>
@@ -2719,10 +3270,10 @@
       <c r="F23" s="1"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="25" t="s">
+      <c r="A24" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="B24" s="28" t="s">
+      <c r="B24" s="29" t="s">
         <v>104</v>
       </c>
       <c r="C24" s="1"/>
@@ -2731,10 +3282,10 @@
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="25" t="s">
+      <c r="A25" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="B25" s="28" t="s">
+      <c r="B25" s="29" t="s">
         <v>94</v>
       </c>
       <c r="C25" s="1"/>
@@ -2743,10 +3294,10 @@
       <c r="F25" s="1"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="25" t="s">
+      <c r="A26" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="B26" s="28" t="s">
+      <c r="B26" s="29" t="s">
         <v>104</v>
       </c>
       <c r="C26" s="1"/>
@@ -2755,10 +3306,10 @@
       <c r="F26" s="1"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="25" t="s">
+      <c r="A27" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="B27" s="28" t="s">
+      <c r="B27" s="29" t="s">
         <v>121</v>
       </c>
       <c r="C27" s="1"/>
@@ -2767,10 +3318,10 @@
       <c r="F27" s="1"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="25" t="s">
+      <c r="A28" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="B28" s="28" t="s">
+      <c r="B28" s="29" t="s">
         <v>104</v>
       </c>
       <c r="C28" s="1"/>
@@ -2796,33 +3347,34 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5420F55F-2147-4DEE-B896-E21470925382}">
-  <dimension ref="A1:O42"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E0E38E3-885D-4537-A0F5-6B5AAD1FC892}">
+  <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView zoomScale="87" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="40.19921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.3984375" customWidth="1"/>
+    <col min="1" max="1" width="53.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B1" s="22" t="s">
-        <v>26</v>
-      </c>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="22"/>
       <c r="C1" s="22"/>
       <c r="D1" s="22"/>
       <c r="E1" s="22"/>
       <c r="F1" s="22"/>
       <c r="G1" s="22"/>
       <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-    </row>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="22"/>
       <c r="B2" s="22"/>
       <c r="C2" s="22"/>
       <c r="D2" s="22"/>
@@ -2830,110 +3382,106 @@
       <c r="F2" s="22"/>
       <c r="G2" s="22"/>
       <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B3" s="11" t="s">
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="B3" s="14" t="s">
         <v>11</v>
       </c>
+      <c r="C3" s="14"/>
       <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B4" s="11" t="s">
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="B4" s="14" t="s">
         <v>29</v>
       </c>
+      <c r="C4" s="14"/>
       <c r="D4" s="14"/>
       <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B5" s="11" t="s">
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
         <v>30</v>
       </c>
+      <c r="B5" s="14"/>
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B7" s="13" t="s">
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="26"/>
+      <c r="B7" s="28"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="B8" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="C8" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="D8" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="E8" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="F8" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="G8" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="I7" s="13" t="s">
+      <c r="H8" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="J7" s="13" t="s">
+      <c r="I8" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="K7" s="13" t="s">
+      <c r="J8" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="L7" s="13" t="s">
+      <c r="K8" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="M7" s="13" t="s">
+      <c r="L8" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="N7" s="13" t="s">
+      <c r="M8" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="O7" s="13" t="s">
+      <c r="N8" s="13" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B8" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B9" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>81</v>
-      </c>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -2945,15 +3493,15 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B10" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>82</v>
-      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -2965,11 +3513,13 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B11" s="12" t="s">
-        <v>48</v>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>104</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -2983,856 +3533,12 @@
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B12" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B13" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B14" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B15" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B16" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B17" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B18" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B19" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" s="24"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B20" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>90</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>91</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>91</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>91</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B25" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B26" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>91</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>91</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>91</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>91</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>91</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>91</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B33" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B34" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>1</v>
-      </c>
-      <c r="B35" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>1</v>
-      </c>
-      <c r="B36" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>1</v>
-      </c>
-      <c r="B37" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <v>1</v>
-      </c>
-      <c r="B38" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <v>1</v>
-      </c>
-      <c r="B39" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <v>1</v>
-      </c>
-      <c r="B40" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
-      <c r="O40" s="1"/>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <v>1</v>
-      </c>
-      <c r="B41" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>89</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B1:I2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="B19:C19"/>
-  </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E0E38E3-885D-4537-A0F5-6B5AAD1FC892}">
-  <dimension ref="A1:N28"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:B28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="53.8984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.09765625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="B6" s="26" t="s">
-        <v>153</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="25"/>
-      <c r="B7" s="27"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="I8" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="J8" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="K8" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="L8" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="M8" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="N8" s="13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="25" t="s">
-        <v>129</v>
-      </c>
-      <c r="B9" s="26" t="s">
-        <v>130</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="25" t="s">
-        <v>131</v>
-      </c>
-      <c r="B10" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="25" t="s">
-        <v>132</v>
-      </c>
-      <c r="B11" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="27" t="s">
         <v>94</v>
       </c>
       <c r="C12" s="1"/>
@@ -3849,10 +3555,10 @@
       <c r="N12" s="1"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="27" t="s">
         <v>104</v>
       </c>
       <c r="C13" s="1"/>
@@ -3869,10 +3575,10 @@
       <c r="N13" s="1"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="26" t="s">
         <v>135</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="27" t="s">
         <v>94</v>
       </c>
       <c r="C14" s="1"/>
@@ -3889,10 +3595,10 @@
       <c r="N14" s="1"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="26" t="s">
         <v>136</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="27" t="s">
         <v>104</v>
       </c>
       <c r="C15" s="1"/>
@@ -3909,10 +3615,10 @@
       <c r="N15" s="1"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="27" t="s">
         <v>104</v>
       </c>
       <c r="C16" s="1"/>
@@ -3929,10 +3635,10 @@
       <c r="N16" s="1"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="27" t="s">
         <v>139</v>
       </c>
       <c r="C17" s="1"/>
@@ -3949,10 +3655,10 @@
       <c r="N17" s="1"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="27" t="s">
         <v>141</v>
       </c>
       <c r="C18" s="1"/>
@@ -3969,10 +3675,10 @@
       <c r="N18" s="1"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="25" t="s">
+      <c r="A19" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="27" t="s">
         <v>141</v>
       </c>
       <c r="C19" s="1"/>
@@ -3989,10 +3695,10 @@
       <c r="N19" s="1"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20" s="25" t="s">
+      <c r="A20" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="27" t="s">
         <v>104</v>
       </c>
       <c r="C20" s="1"/>
@@ -4009,10 +3715,10 @@
       <c r="N20" s="1"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A21" s="25" t="s">
+      <c r="A21" s="26" t="s">
         <v>144</v>
       </c>
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="27" t="s">
         <v>104</v>
       </c>
       <c r="C21" s="1"/>
@@ -4032,7 +3738,7 @@
       <c r="A22" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="B22" s="26" t="s">
+      <c r="B22" s="27" t="s">
         <v>104</v>
       </c>
       <c r="C22" s="1"/>
@@ -4049,10 +3755,10 @@
       <c r="N22" s="1"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23" s="25" t="s">
+      <c r="A23" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="B23" s="26" t="s">
+      <c r="B23" s="27" t="s">
         <v>104</v>
       </c>
       <c r="C23" s="1"/>
@@ -4069,10 +3775,10 @@
       <c r="N23" s="1"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A24" s="25" t="s">
+      <c r="A24" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="B24" s="26" t="s">
+      <c r="B24" s="27" t="s">
         <v>104</v>
       </c>
       <c r="C24" s="1"/>
@@ -4089,10 +3795,10 @@
       <c r="N24" s="1"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A25" s="25" t="s">
+      <c r="A25" s="26" t="s">
         <v>148</v>
       </c>
-      <c r="B25" s="26" t="s">
+      <c r="B25" s="27" t="s">
         <v>149</v>
       </c>
       <c r="C25" s="1"/>
@@ -4109,10 +3815,10 @@
       <c r="N25" s="1"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A26" s="25" t="s">
+      <c r="A26" s="26" t="s">
         <v>150</v>
       </c>
-      <c r="B26" s="26" t="s">
+      <c r="B26" s="27" t="s">
         <v>104</v>
       </c>
       <c r="C26" s="1"/>
@@ -4129,10 +3835,10 @@
       <c r="N26" s="1"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A27" s="25" t="s">
+      <c r="A27" s="26" t="s">
         <v>151</v>
       </c>
-      <c r="B27" s="26" t="s">
+      <c r="B27" s="27" t="s">
         <v>141</v>
       </c>
       <c r="C27" s="1"/>
@@ -4149,10 +3855,10 @@
       <c r="N27" s="1"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A28" s="25" t="s">
+      <c r="A28" s="26" t="s">
         <v>152</v>
       </c>
-      <c r="B28" s="26" t="s">
+      <c r="B28" s="27" t="s">
         <v>104</v>
       </c>
       <c r="C28" s="1"/>
@@ -4183,7 +3889,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{830191A4-398A-4006-91C3-97C2190DEC11}">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
@@ -4247,10 +3953,10 @@
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="27" t="s">
         <v>95</v>
       </c>
       <c r="D6" s="11" t="s">
@@ -4260,42 +3966,42 @@
     </row>
     <row r="7" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="8" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="34" t="s">
+      <c r="C8" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="D8" s="35" t="s">
+      <c r="D8" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="E8" s="35" t="s">
+      <c r="E8" s="36" t="s">
         <v>126</v>
       </c>
-      <c r="F8" s="35" t="s">
+      <c r="F8" s="36" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="27" t="s">
         <v>102</v>
       </c>
       <c r="C10" s="1"/>
@@ -4304,10 +4010,10 @@
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="27" t="s">
         <v>104</v>
       </c>
       <c r="C11" s="1"/>
@@ -4316,10 +4022,10 @@
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="27" t="s">
         <v>94</v>
       </c>
       <c r="C12" s="1"/>
@@ -4328,10 +4034,10 @@
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="27" t="s">
         <v>104</v>
       </c>
       <c r="C13" s="1"/>
@@ -4340,10 +4046,10 @@
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="26" t="s">
         <v>135</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="27" t="s">
         <v>94</v>
       </c>
       <c r="C14" s="1"/>
@@ -4352,10 +4058,10 @@
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="26" t="s">
         <v>136</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="27" t="s">
         <v>104</v>
       </c>
       <c r="C15" s="1"/>
@@ -4364,10 +4070,10 @@
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="27" t="s">
         <v>104</v>
       </c>
       <c r="C16" s="1"/>
@@ -4376,10 +4082,10 @@
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="27" t="s">
         <v>139</v>
       </c>
       <c r="C17" s="1"/>
@@ -4388,10 +4094,10 @@
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="27" t="s">
         <v>141</v>
       </c>
       <c r="C18" s="1"/>
@@ -4400,10 +4106,10 @@
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="25" t="s">
+      <c r="A19" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="27" t="s">
         <v>141</v>
       </c>
       <c r="C19" s="1"/>
@@ -4412,10 +4118,10 @@
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="25" t="s">
+      <c r="A20" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="27" t="s">
         <v>104</v>
       </c>
       <c r="C20" s="1"/>
@@ -4424,10 +4130,10 @@
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="25" t="s">
+      <c r="A21" s="26" t="s">
         <v>144</v>
       </c>
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="27" t="s">
         <v>104</v>
       </c>
       <c r="C21" s="1"/>
@@ -4439,7 +4145,7 @@
       <c r="A22" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="B22" s="26" t="s">
+      <c r="B22" s="27" t="s">
         <v>104</v>
       </c>
       <c r="C22" s="1"/>
@@ -4448,10 +4154,10 @@
       <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="25" t="s">
+      <c r="A23" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="B23" s="26" t="s">
+      <c r="B23" s="27" t="s">
         <v>104</v>
       </c>
       <c r="C23" s="1"/>
@@ -4460,10 +4166,10 @@
       <c r="F23" s="1"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="25" t="s">
+      <c r="A24" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="B24" s="26" t="s">
+      <c r="B24" s="27" t="s">
         <v>104</v>
       </c>
       <c r="C24" s="1"/>
@@ -4472,10 +4178,10 @@
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="25" t="s">
+      <c r="A25" s="26" t="s">
         <v>148</v>
       </c>
-      <c r="B25" s="26" t="s">
+      <c r="B25" s="27" t="s">
         <v>149</v>
       </c>
       <c r="C25" s="1"/>
@@ -4484,10 +4190,10 @@
       <c r="F25" s="1"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="25" t="s">
+      <c r="A26" s="26" t="s">
         <v>150</v>
       </c>
-      <c r="B26" s="26" t="s">
+      <c r="B26" s="27" t="s">
         <v>104</v>
       </c>
       <c r="C26" s="1"/>
@@ -4496,10 +4202,10 @@
       <c r="F26" s="1"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="25" t="s">
+      <c r="A27" s="26" t="s">
         <v>151</v>
       </c>
-      <c r="B27" s="26" t="s">
+      <c r="B27" s="27" t="s">
         <v>141</v>
       </c>
       <c r="C27" s="1"/>
@@ -4508,10 +4214,10 @@
       <c r="F27" s="1"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="25" t="s">
+      <c r="A28" s="26" t="s">
         <v>152</v>
       </c>
-      <c r="B28" s="26" t="s">
+      <c r="B28" s="27" t="s">
         <v>104</v>
       </c>
       <c r="C28" s="1"/>
@@ -4528,4 +4234,849 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5420F55F-2147-4DEE-B896-E21470925382}">
+  <dimension ref="A1:O42"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" zoomScale="87" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="40.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.3984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B1" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+    </row>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B3" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B4" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B5" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B7" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="L7" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="M7" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="N7" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="O7" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B8" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B9" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B10" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B11" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B12" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B13" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B14" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B15" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B16" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B17" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B18" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B19" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="24"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B20" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>90</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>91</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>91</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>91</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B25" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B26" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>91</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>91</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>91</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>91</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>91</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>91</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B33" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B34" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B1:I2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="B19:C19"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>